--- a/documentos/Backlog Requisitos (2).xlsx
+++ b/documentos/Backlog Requisitos (2).xlsx
@@ -5,28 +5,39 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dra.Irene\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/git/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2085A0-C8B2-48F2-9E7D-7055FB0F4E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{6B2085A0-C8B2-48F2-9E7D-7055FB0F4E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6786C69-38C0-4626-96DF-8E0D205F7F0F}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4860" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="138">
   <si>
     <t>Requisitos</t>
   </si>
@@ -250,12 +261,6 @@
     <t>Criar um código onde será feita a captura de dados do sensor de bloqueio e inclui-los em um gráfico</t>
   </si>
   <si>
-    <t>Sessão Início</t>
-  </si>
-  <si>
-    <t>Informações sobre cada sessão do site</t>
-  </si>
-  <si>
     <t>Informações detalhadas sobre a empresa e a equipe envolvida no projeto</t>
   </si>
   <si>
@@ -280,18 +285,6 @@
     <t>Criar um banco de dados na ferramente MySQP para armazenar informações do cliente e dos sensores</t>
   </si>
   <si>
-    <t>Sessão Sobre Nós</t>
-  </si>
-  <si>
-    <t>Sessão Login</t>
-  </si>
-  <si>
-    <t>Sessão Cadastro</t>
-  </si>
-  <si>
-    <t>Sessão Recuperação de senha</t>
-  </si>
-  <si>
     <t>Realizar um cálculo de redução de gastos com base nas informações do cliente</t>
   </si>
   <si>
@@ -304,21 +297,9 @@
     <t xml:space="preserve">Coletar informações do nosso cliente </t>
   </si>
   <si>
-    <t>Cabeçalho</t>
-  </si>
-  <si>
-    <t>Rodapé</t>
-  </si>
-  <si>
     <t>Criar e configurar no GitHub</t>
   </si>
   <si>
-    <t>Sessão Calculadora</t>
-  </si>
-  <si>
-    <t>Sessão Fale Conosco</t>
-  </si>
-  <si>
     <t>Barra de navegação com links de redirecionamento para todas as sessões do site através de botões</t>
   </si>
   <si>
@@ -361,21 +342,12 @@
     <t>P</t>
   </si>
   <si>
-    <t xml:space="preserve">Código da calculadora </t>
-  </si>
-  <si>
     <t>Desenvolvimento da lógica e do código da calculadora</t>
   </si>
   <si>
-    <t>lógica do Login</t>
-  </si>
-  <si>
     <t>Validação dos dados inseridos pelo usuário e retornar permissão.</t>
   </si>
   <si>
-    <t xml:space="preserve">lógica do cadastro </t>
-  </si>
-  <si>
     <t>Coletar e validar as informações cadastrais e gravar no banco de dados</t>
   </si>
   <si>
@@ -413,6 +385,72 @@
   </si>
   <si>
     <t>Especificação do Analytics/Metricas</t>
+  </si>
+  <si>
+    <t>Informações sobre cada sessão do site institucional</t>
+  </si>
+  <si>
+    <t>Cabeçalho (C)</t>
+  </si>
+  <si>
+    <t>Sessão Início (C)</t>
+  </si>
+  <si>
+    <t>Sessão Dashboard (C)</t>
+  </si>
+  <si>
+    <t>Lógica do Dashboard (C)</t>
+  </si>
+  <si>
+    <t>Validação e lógica do Login (I)</t>
+  </si>
+  <si>
+    <t>Código da calculadora (I)</t>
+  </si>
+  <si>
+    <t>Cabeçalho (I)</t>
+  </si>
+  <si>
+    <t>Sessão Início (I)</t>
+  </si>
+  <si>
+    <t>Sessão Sobre Nós (I)</t>
+  </si>
+  <si>
+    <t>Sessão Calculadora (I)</t>
+  </si>
+  <si>
+    <t>Sessão Fale Conosco (I)</t>
+  </si>
+  <si>
+    <t>Sessão Login (I)</t>
+  </si>
+  <si>
+    <t>Sessão Cadastro (I)</t>
+  </si>
+  <si>
+    <t>Sessão Recuperação de senha (I)</t>
+  </si>
+  <si>
+    <t>Rodapé (I)</t>
+  </si>
+  <si>
+    <t>Responsividade do site(I)</t>
+  </si>
+  <si>
+    <t>Validação e lógica do cadastro (I)</t>
+  </si>
+  <si>
+    <t>Legenda</t>
+  </si>
+  <si>
+    <t>(I)</t>
+  </si>
+  <si>
+    <t>Site Cliente</t>
+  </si>
+  <si>
+    <t>(C)</t>
   </si>
 </sst>
 </file>
@@ -781,6 +819,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -816,9 +857,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1273,34 +1311,34 @@
       <selection activeCell="B36" sqref="B36:D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="60.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.7265625" customWidth="1"/>
+    <col min="3" max="3" width="60.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
-    </row>
-    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
@@ -1312,7 +1350,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1323,7 +1361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1334,7 +1372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1345,7 +1383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1356,7 +1394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1367,7 +1405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1378,14 +1416,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,7 +1434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1407,7 +1445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1418,7 +1456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1429,7 +1467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1440,7 +1478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1451,7 +1489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1462,7 +1500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1473,7 +1511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1484,7 +1522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
@@ -1495,14 +1533,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>38</v>
       </c>
@@ -1513,7 +1551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>40</v>
       </c>
@@ -1524,7 +1562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
         <v>42</v>
       </c>
@@ -1535,14 +1573,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>46</v>
       </c>
@@ -1553,7 +1591,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>48</v>
       </c>
@@ -1564,7 +1602,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
         <v>50</v>
       </c>
@@ -1575,7 +1613,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>52</v>
       </c>
@@ -1586,7 +1624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>52</v>
       </c>
@@ -1597,7 +1635,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>55</v>
       </c>
@@ -1608,7 +1646,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>58</v>
       </c>
@@ -1619,7 +1657,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
         <v>60</v>
       </c>
@@ -1630,7 +1668,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
         <v>62</v>
       </c>
@@ -1656,55 +1694,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7DA6DA-76F6-4BBF-B420-7F89428DFE23}">
-  <dimension ref="B2:L43"/>
+  <dimension ref="B2:L46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="53.7265625" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="5" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.54296875" customWidth="1"/>
+    <col min="11" max="11" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-    </row>
-    <row r="4" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
@@ -1715,19 +1753,19 @@
         <v>2</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
         <v>66</v>
       </c>
@@ -1738,7 +1776,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F6" s="10">
         <v>13</v>
@@ -1749,24 +1787,24 @@
       <c r="H6" s="10">
         <v>1</v>
       </c>
-      <c r="J6" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="29"/>
-    </row>
-    <row r="7" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F7" s="11">
         <v>3</v>
@@ -1781,24 +1819,24 @@
         <v>64</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F8" s="10">
         <v>5</v>
@@ -1822,18 +1860,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F9" s="11">
         <v>5</v>
@@ -1845,18 +1883,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F10" s="10">
         <v>13</v>
@@ -1867,19 +1905,23 @@
       <c r="H10" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="29"/>
+    </row>
+    <row r="11" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F11" s="11">
         <v>13</v>
@@ -1890,8 +1932,14 @@
       <c r="H11" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
         <v>72</v>
       </c>
@@ -1902,7 +1950,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F12" s="10">
         <v>13</v>
@@ -1913,19 +1961,25 @@
       <c r="H12" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F13" s="11">
         <v>8</v>
@@ -1937,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
         <v>6</v>
       </c>
@@ -1948,7 +2002,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F14" s="10">
         <v>21</v>
@@ -1960,18 +2014,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="11" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F15" s="11">
         <v>13</v>
@@ -1983,18 +2037,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="10" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>57</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F16" s="10">
         <v>8</v>
@@ -2006,18 +2060,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="11" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>107</v>
       </c>
       <c r="F17" s="11">
         <v>3</v>
@@ -2029,18 +2083,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="10" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F18" s="10">
         <v>8</v>
@@ -2052,18 +2106,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="11" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F19" s="11">
         <v>5</v>
@@ -2075,18 +2129,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="10" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F20" s="10">
         <v>13</v>
@@ -2098,18 +2152,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="11" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>108</v>
       </c>
       <c r="F21" s="11">
         <v>8</v>
@@ -2121,18 +2175,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="10" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F22" s="10">
         <v>8</v>
@@ -2144,18 +2198,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="11" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F23" s="11">
         <v>8</v>
@@ -2167,18 +2221,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="10" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F24" s="10">
         <v>3</v>
@@ -2190,18 +2244,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="11" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F25" s="11">
         <v>3</v>
@@ -2213,9 +2267,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="10" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>63</v>
@@ -2224,7 +2278,7 @@
         <v>57</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F26" s="10">
         <v>13</v>
@@ -2236,18 +2290,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="11" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F27" s="11">
         <v>13</v>
@@ -2259,221 +2313,257 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-    </row>
-    <row r="29" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="11" t="s">
         <v>118</v>
       </c>
       <c r="C29" s="11"/>
-      <c r="D29" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="11">
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30">
+    <row r="33" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11">
+    <row r="34" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30">
+    <row r="35" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11">
+    <row r="36" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30">
+    <row r="37" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11">
+    <row r="38" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30">
+    <row r="39" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11">
+    <row r="40" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30">
+    <row r="41" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11">
+    <row r="42" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-    </row>
-    <row r="41" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-    </row>
-    <row r="43" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+    <row r="43" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+    </row>
+    <row r="46" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
